--- a/medicine/Psychotrope/Lagenaria_siceraria/Lagenaria_siceraria.xlsx
+++ b/medicine/Psychotrope/Lagenaria_siceraria/Lagenaria_siceraria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La calebasse, gourde ou louche (Lagenaria siceraria), est une espèce de plante à fleurs de la famille des Cucurbitacées. C'est une plante herbacée annuelle cultivée comme plante potagère pour son fruit caractéristique également dénommé calebasse. Ce fruit est utilisé à l'état sec depuis des temps préhistoriques dans toutes les régions du monde pour fabriquer divers objets (ex. : récipient portatif pour boisson), ou plus rarement consommé à l'état frais comme légume.
 Nom commun : calebasse, gourde, gourde pèlerine, cougourde, cougourdon (surtout dans la région niçoise), cuyon (dans le Sud-Ouest), courge-bouteille. Allemand : Flaschenkürbis ; anglais : calabash gourd, bottle gourd ; espagnol : calabaza, cajombre.
@@ -522,14 +534,16 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lagenaria siceraria est une plante annuelle, rampante ou grimpante, à longues tiges ramifiées munies de vrilles rameuses opposées aux feuilles. Ses tiges peuvent atteindre 9 m de long et sont côtelées. 
 Les feuilles sont pétiolées, alternes, légèrement tri- à heptalobulées et approximativement réniformes, légèrement poilues mais douces au toucher. Elles peuvent mesurer jusqu'à  30 cm de long et ont une odeur musquée caractéristique et parfois très intense.
 La plante est monoïque et produit des fleurs blanches unisexuées, actinomorphes et pentamères, dont la corolle porte des pétales libres, pubescents et blancs. Elles sont héliotropes.
 Pollinisée par les insectes, la fleur femelle produit un fruit péponide charnu dont la forme varie selon les sous-espèces et variétés. Sphérique ou allongé, il ressemble souvent à une bouteille ou à une amphore, avec une partie renflée et un col plus ou moins long. Immature, le fruit a la peau verte et un intérieur blanc et charnu ; le cultivar 'Cougourde' , spécialement sélectionné pour la consommation, a un péricarpe fin, mais dans la plupart des variétés il se lignifie précocement et devient dur comme du bois en séchant. Le fruit peut atteindre 1 m de long, voire plus chez certaines variétés.
 Les graines de couleur blanc crème sont nombreuses, aplaties et de forme elliptique ; leur intérieur est blanc, avec un goût sucré et huileux. Les graines de calebasse brunissent généralement lorsqu'elles sont exposées à l'air ou lorsqu'elles sont mises à sécher. Le brunissement des graines est un processus normal et n'affecte pas leur germination.
-La plante a été sélectionnée pour répondre aux besoins humains. Les vestiges trouvés en Afrique (Zimbabwe, Zambie) étaient comestibles, mais leur coque fragile et non imperméable était impropre à l'usage caractéristique d'une gourde[1],[2].
+La plante a été sélectionnée pour répondre aux besoins humains. Les vestiges trouvés en Afrique (Zimbabwe, Zambie) étaient comestibles, mais leur coque fragile et non imperméable était impropre à l'usage caractéristique d'une gourde,.
 </t>
         </is>
       </c>
@@ -558,9 +572,11 @@
           <t>Origine et distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est originaire des régions tropicales d'Afrique et d'Asie[3]. Son aire d'origine  exacte est inconnue, parce que le fruit flotte et peut ainsi s'être répandu partout dans le monde sans intervention humaine[2], et parce qu'il s'agit d'une plante domestiquée que les humains ont pu transporter au cours de leur migration puis faire évoluer. Elle est signalée en Afrique du Sud dès 2000 avant notre ère[3]. Présente de façon très précoce en Amérique, elle fait partie des rares plantes à avoir été commune à l'ancien et au nouveau mondes, avant l'échange colombien[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est originaire des régions tropicales d'Afrique et d'Asie. Son aire d'origine  exacte est inconnue, parce que le fruit flotte et peut ainsi s'être répandu partout dans le monde sans intervention humaine, et parce qu'il s'agit d'une plante domestiquée que les humains ont pu transporter au cours de leur migration puis faire évoluer. Elle est signalée en Afrique du Sud dès 2000 avant notre ère. Présente de façon très précoce en Amérique, elle fait partie des rares plantes à avoir été commune à l'ancien et au nouveau mondes, avant l'échange colombien.
 La culture de cette plante et l'utilisation de ses fruits comme récipients est très ancienne. C'est une plante qui est citée par Pline l'Ancien et qui figurait sous le nom de cucurbita parmi les plantes potagères recommandées dans le capitulaire De Villis au Moyen Âge.
 </t>
         </is>
@@ -590,7 +606,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante préfère un sol frais et meuble, bien fumé. La multiplication se fait par semis, au printemps, en godets, dans un endroit abrité et maintenu au chaud (20 °C) ; les jeunes plants sont repiqués lorsque le risque de gelée n'est plus à craindre et la terre suffisamment réchauffée, vers le 15 mai.
 La croissance est très rapide. Prévoir un palissage pour permettre à la plante de grimper.
@@ -624,7 +642,9 @@
           <t>Principales variétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>On dénombre plusieurs variétés.
 Gourde de pèlerin
@@ -659,7 +679,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fruits jeunes, plutôt fades, se préparent comme des courgettes. Ce légume est surtout consommé en Inde et en Extrême-Orient. Certaines variétés, trop amères à cause de leur teneur en cucurbitacines, ne sont pas comestibles.
 Les fruits séchés sont utilisés pour la fabrication de divers objets traditionnels, notamment ustensiles de cuisine (récipients, louches, gourdes, coffrets, étuis), flotteurs ou d'étuis péniens chez certaines peuplades de Nouvelle-Guinée ou d'Afrique, le brassage et le transport de bières traditionnelles, ainsi que la préparation du maté.
@@ -667,7 +689,7 @@
 La calebasse peut aussi être utilisée dans la fabrication de marionnettes. 
 La plante est aussi utilisée comme plante grimpante ornementale pour décorer treilles et tonnelles.
 Le fruit, une fois vidé, peut être utilisé comme nid pour oiseau.
-En faisant pousser la calebasse dans un moule de façon qu’elle en épouse la forme, on peut fabriquer, par exemple, des verres biodégradables[5].
+En faisant pousser la calebasse dans un moule de façon qu’elle en épouse la forme, on peut fabriquer, par exemple, des verres biodégradables.
 </t>
         </is>
       </c>
